--- a/frontend/src/assets/Card.xlsx
+++ b/frontend/src/assets/Card.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jay/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jay/Documents/Finance/frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB0DD9-F171-4E48-9406-D86ADACA41A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC83ECE-A020-1847-B7DE-27D7591D7561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="620" windowWidth="28040" windowHeight="15920" xr2:uid="{F8087D58-34A1-0D4F-94A3-CE28E4F1F0F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Card</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Personal</t>
-  </si>
-  <si>
-    <t>Grocery Store</t>
   </si>
   <si>
     <t>Cardholder Name-Card Name</t>
@@ -429,7 +426,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +462,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -488,7 +485,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -512,7 +509,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -536,7 +533,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -559,172 +556,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>46015</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>46016</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>46017</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>46018</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>46019</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>13000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>46020</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>46021</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
